--- a/WorkBot/main/backend/ordering/OrderFiles/BALKAN BEVERAGE LLC/BALKAN BEVERAGE LLC_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/BALKAN BEVERAGE LLC/BALKAN BEVERAGE LLC_Triphammer_20250704.xlsx
@@ -451,27 +451,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Red Bull - Pink Berry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.85</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>42.85</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
